--- a/Годовой 2025г.   oxirgisi.xlsx
+++ b/Годовой 2025г.   oxirgisi.xlsx
@@ -2827,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H251" sqref="H251"/>
+    <sheetView tabSelected="1" topLeftCell="F249" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y168" sqref="Y168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12748,7 +12748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:29" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A163" s="180">
         <v>171</v>
       </c>
@@ -12794,11 +12794,11 @@
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
       <c r="Y163" s="221">
-        <v>7680000</v>
+        <v>3562650</v>
       </c>
       <c r="Z163" s="221">
         <f t="shared" si="15"/>
-        <v>153600000</v>
+        <v>71253000</v>
       </c>
       <c r="AA163" s="2" t="s">
         <v>19</v>
@@ -12807,7 +12807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:29" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A164" s="180">
         <v>172</v>
       </c>
@@ -12853,11 +12853,11 @@
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
       <c r="Y164" s="221">
-        <v>7680000</v>
+        <v>4093845</v>
       </c>
       <c r="Z164" s="221">
         <f t="shared" si="15"/>
-        <v>153600000</v>
+        <v>81876900</v>
       </c>
       <c r="AA164" s="2" t="s">
         <v>19</v>
@@ -12866,7 +12866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A165" s="180">
         <v>173</v>
       </c>
@@ -12912,11 +12912,11 @@
       <c r="W165" s="2"/>
       <c r="X165" s="2"/>
       <c r="Y165" s="221">
-        <v>7680000</v>
+        <v>4093845</v>
       </c>
       <c r="Z165" s="221">
         <f t="shared" si="15"/>
-        <v>153600000</v>
+        <v>81876900</v>
       </c>
       <c r="AA165" s="2" t="s">
         <v>19</v>
@@ -12925,7 +12925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:29" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A166" s="180">
         <v>174</v>
       </c>
@@ -12971,11 +12971,11 @@
       <c r="W166" s="2"/>
       <c r="X166" s="2"/>
       <c r="Y166" s="221">
-        <v>7680001</v>
+        <v>8736000</v>
       </c>
       <c r="Z166" s="221">
         <f t="shared" ref="Z166:Z167" si="17">Y166*K166</f>
-        <v>153600020</v>
+        <v>174720000</v>
       </c>
       <c r="AA166" s="2" t="s">
         <v>19</v>
@@ -12984,7 +12984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A167" s="180">
         <v>175</v>
       </c>
@@ -13030,11 +13030,11 @@
       <c r="W167" s="2"/>
       <c r="X167" s="2"/>
       <c r="Y167" s="221">
-        <v>7680002</v>
+        <v>9750000</v>
       </c>
       <c r="Z167" s="221">
         <f t="shared" si="17"/>
-        <v>153600040</v>
+        <v>195000000</v>
       </c>
       <c r="AA167" s="2" t="s">
         <v>19</v>
@@ -18331,7 +18331,7 @@
       <c r="Y253" s="248"/>
       <c r="Z253" s="249">
         <f>SUM(Z5:Z252)</f>
-        <v>12570918104.465</v>
+        <v>12407644844.465</v>
       </c>
       <c r="AA253" s="131"/>
       <c r="AB253" s="131"/>
